--- a/biology/Zoologie/Donax_trunculus/Donax_trunculus.xlsx
+++ b/biology/Zoologie/Donax_trunculus/Donax_trunculus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Donax trunculus est une espèce de mollusques bivalves marins de la famille des Donacidae.
 </t>
@@ -511,21 +523,127 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce a été décrite par le naturaliste suédois Carl von Linné en 1758.
-Étymologie
-Du latin [donax] = nom d’une coquille dans Pline et du latin [trunculus], diminutif de [truncus] = tronc ; tronçon ; tronqué[1].
-Synonymie
-Donax serrula (Linnaeus, 1758)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Donax_trunculus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Donax_trunculus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du latin [donax] = nom d’une coquille dans Pline et du latin [trunculus], diminutif de [truncus] = tronc ; tronçon ; tronqué.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Donax_trunculus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Donax_trunculus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Donax serrula (Linnaeus, 1758)
 Donax laevigatus (Gmelin, 1791)
 Donax julianae (Krynichy, 1837)
 Donax brevis (Réquien, 1848)
 Donax bellardii (Tapparone-Canefri, 1869)
 Serrula adriatica (Monterosato, 1884)
-Donax trunculatus (Locard, 1886)
-Noms vernaculaires
-En français
+Donax trunculatus (Locard, 1886)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Donax_trunculus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Donax_trunculus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En français
 Flion, olive de mer, haricot de mer, douceron, blanchette (nord de la France), sébette (Finistère), pignon (Vendée), lavagnon (Gironde), lagagnon (Landes), tanille, tenille, ou encore truille (sud-est de la France)
 Aussi appelé « papillon » en raison de la forme des deux valves ouvertes.
 L'appellation « telline » lui est improprement attribuée ; elle devrait être réservée au genre Tellina.
@@ -535,31 +653,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Donax_trunculus</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Donax_trunculus</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce petit coquillage d'environ 2 à 3 centimètres vit en bordure de mer, sous quelques centimètres de sable mouillé. Ce coquillage peut être considéré comme un aliment, si les règles du paquet hygiène sont respectées.
 			Donax trunculus trunculusvalve droite
@@ -576,93 +696,99 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Donax_trunculus</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Donax_trunculus</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Récolte</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">En Méditerranée, le tellinaire vêtu d'une combinaison de plongée tire à reculons un chalut-râteau (2), le manche (1) du chalut peut être en bois comme en métal ; certains tellinaires le préfèrent en métal pour sa solidité.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Donax_trunculus</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Donax_trunculus</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Consommation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est fortement conseillé de faire dessabler ce coquillage avant de le manger : dans ce but, les Donax trunculus sont mis à dégorger 12 à 24 heures dans de l'eau de mer ou de l'eau fortement salée pour leur faire rendre le sable emmagasiné pendant la pêche. Consommés crus ou pochés en persillade, ils sont fort appréciés.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Donax_trunculus</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Donax_trunculus</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Donax trunculus se reproduit à l'âge d'un an environ lorsqu'il atteint 1 cm de longueur.
 </t>
